--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1786349.027471721</v>
+        <v>-1788846.774617549</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10789133.82060533</v>
+        <v>10723593.16909386</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14898719.58811074</v>
+        <v>14911214.80126767</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>355.5778777363715</v>
       </c>
       <c r="C11" t="n">
-        <v>354.079053648813</v>
+        <v>338.1169278438985</v>
       </c>
       <c r="D11" t="n">
-        <v>343.4892034984885</v>
+        <v>327.5270776935739</v>
       </c>
       <c r="E11" t="n">
-        <v>114.8121051367443</v>
+        <v>354.7744061451527</v>
       </c>
       <c r="F11" t="n">
-        <v>395.6822076195169</v>
+        <v>379.7200818146024</v>
       </c>
       <c r="G11" t="n">
-        <v>399.7400334344992</v>
+        <v>383.7779076295847</v>
       </c>
       <c r="H11" t="n">
-        <v>283.5383154966851</v>
+        <v>267.5761896917706</v>
       </c>
       <c r="I11" t="n">
-        <v>30.85134658540105</v>
+        <v>14.88922078048656</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.30857263115396</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>239.8023055089667</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>316.5584203479404</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.085004790304</v>
       </c>
       <c r="X11" t="n">
-        <v>358.5372625562745</v>
+        <v>26.69911288134463</v>
       </c>
       <c r="Y11" t="n">
-        <v>375.0441005338591</v>
+        <v>359.0819747289445</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.65963851412518</v>
       </c>
       <c r="I12" t="n">
-        <v>8.915218264396643</v>
+        <v>8.915218264396657</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>168.6381420597428</v>
+        <v>152.6760162548283</v>
       </c>
       <c r="C13" t="n">
-        <v>156.0529829764333</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>137.4216348960178</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.2779987194602</v>
       </c>
       <c r="F13" t="n">
-        <v>134.2272099007367</v>
+        <v>118.2650840958222</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>138.8752925659751</v>
       </c>
       <c r="H13" t="n">
-        <v>48.46500329876215</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>85.32242554452532</v>
+        <v>69.36029973961082</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.98328696276728</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>178.670135070022</v>
+        <v>125.5471699873614</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>192.4162641672991</v>
       </c>
       <c r="U13" t="n">
-        <v>275.0182972598214</v>
+        <v>259.0561714549069</v>
       </c>
       <c r="V13" t="n">
-        <v>240.9438052016335</v>
+        <v>224.981679396719</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>259.367034409482</v>
       </c>
       <c r="X13" t="n">
-        <v>214.5158172668426</v>
+        <v>198.5536914619281</v>
       </c>
       <c r="Y13" t="n">
-        <v>207.3908152299003</v>
+        <v>191.4286894249858</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>348.5198378413448</v>
+        <v>355.5778777363715</v>
       </c>
       <c r="C14" t="n">
-        <v>331.0588879488718</v>
+        <v>338.1169278438985</v>
       </c>
       <c r="D14" t="n">
-        <v>320.4690377985472</v>
+        <v>327.5270776935739</v>
       </c>
       <c r="E14" t="n">
-        <v>347.716366250126</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>143.7599860144129</v>
+        <v>379.7200818146024</v>
       </c>
       <c r="G14" t="n">
-        <v>376.7077218313177</v>
+        <v>383.7657617263444</v>
       </c>
       <c r="H14" t="n">
-        <v>260.3937605651847</v>
+        <v>267.4518004602114</v>
       </c>
       <c r="I14" t="n">
-        <v>7.362925950790149</v>
+        <v>14.42096584581691</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>74.97375796604004</v>
+        <v>82.03179786106682</v>
       </c>
       <c r="T14" t="n">
-        <v>169.7039663174843</v>
+        <v>176.7620062125111</v>
       </c>
       <c r="U14" t="n">
-        <v>216.7811681367662</v>
+        <v>223.839208031793</v>
       </c>
       <c r="V14" t="n">
-        <v>293.5382546479991</v>
+        <v>300.5962945430259</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>335.5170968563332</v>
+        <v>17.61099362705701</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>359.0819747289445</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>152.6760162548283</v>
       </c>
       <c r="C16" t="n">
-        <v>133.032817276492</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.4595090911033</v>
       </c>
       <c r="E16" t="n">
-        <v>112.2199588244334</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>111.2070442007955</v>
+        <v>118.2650840958222</v>
       </c>
       <c r="G16" t="n">
-        <v>131.8118044368924</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>110.541011092185</v>
+        <v>117.5990509872118</v>
       </c>
       <c r="I16" t="n">
-        <v>62.13841658770229</v>
+        <v>69.19645648272908</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.71814884791153</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>155.5550215093061</v>
+        <v>162.6130614043329</v>
       </c>
       <c r="T16" t="n">
-        <v>185.3349454540334</v>
+        <v>192.3929853490602</v>
       </c>
       <c r="U16" t="n">
-        <v>251.9978343834771</v>
+        <v>259.0558742785038</v>
       </c>
       <c r="V16" t="n">
-        <v>173.7074702838042</v>
+        <v>224.981679396719</v>
       </c>
       <c r="W16" t="n">
-        <v>252.3089945144552</v>
+        <v>246.8769910721979</v>
       </c>
       <c r="X16" t="n">
-        <v>191.4956515669014</v>
+        <v>198.5536914619281</v>
       </c>
       <c r="Y16" t="n">
-        <v>184.370649529959</v>
+        <v>191.4286894249858</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>301.5447012227522</v>
+        <v>308.602741117779</v>
       </c>
       <c r="C17" t="n">
-        <v>284.0837513302792</v>
+        <v>291.141791225306</v>
       </c>
       <c r="D17" t="n">
-        <v>273.4939011799546</v>
+        <v>280.5519410749814</v>
       </c>
       <c r="E17" t="n">
-        <v>300.7412296315334</v>
+        <v>307.7992695265602</v>
       </c>
       <c r="F17" t="n">
-        <v>325.6869053009831</v>
+        <v>332.7449451960098</v>
       </c>
       <c r="G17" t="n">
-        <v>329.7325852127251</v>
+        <v>336.7906251077519</v>
       </c>
       <c r="H17" t="n">
-        <v>213.4186239465921</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>35.05666124247423</v>
       </c>
       <c r="T17" t="n">
-        <v>89.59536554124131</v>
+        <v>129.7868695939185</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>176.8640714132004</v>
       </c>
       <c r="V17" t="n">
-        <v>246.5631180294066</v>
+        <v>253.6211579244333</v>
       </c>
       <c r="W17" t="n">
-        <v>268.0518282766847</v>
+        <v>275.1098681717114</v>
       </c>
       <c r="X17" t="n">
-        <v>288.5419602377407</v>
+        <v>186.3259884207385</v>
       </c>
       <c r="Y17" t="n">
-        <v>305.0487982153252</v>
+        <v>312.106838110352</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>115.3659688148651</v>
+        <v>105.7008796362357</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>93.11572055292623</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>140.6571441071953</v>
       </c>
       <c r="E19" t="n">
-        <v>65.24482220584083</v>
+        <v>72.30286210086757</v>
       </c>
       <c r="F19" t="n">
-        <v>64.23190758220291</v>
+        <v>71.28994747722965</v>
       </c>
       <c r="G19" t="n">
-        <v>84.83666781829989</v>
+        <v>91.89470771332662</v>
       </c>
       <c r="H19" t="n">
-        <v>63.56587447359244</v>
+        <v>70.62391436861918</v>
       </c>
       <c r="I19" t="n">
-        <v>15.16327996910976</v>
+        <v>22.2213198641365</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>7.743012229318992</v>
+        <v>14.80105212434573</v>
       </c>
       <c r="S19" t="n">
-        <v>108.5798848907135</v>
+        <v>115.6379247857403</v>
       </c>
       <c r="T19" t="n">
-        <v>138.3598088354408</v>
+        <v>145.4178487304676</v>
       </c>
       <c r="U19" t="n">
-        <v>205.0226977648845</v>
+        <v>212.0807376599113</v>
       </c>
       <c r="V19" t="n">
-        <v>170.9485028830996</v>
+        <v>178.0065427781264</v>
       </c>
       <c r="W19" t="n">
-        <v>205.3338578958626</v>
+        <v>212.3918977908894</v>
       </c>
       <c r="X19" t="n">
-        <v>144.5205149483088</v>
+        <v>151.5785548433356</v>
       </c>
       <c r="Y19" t="n">
-        <v>137.3955129113664</v>
+        <v>144.4535528063932</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>70.60658419948074</v>
+        <v>308.602741117779</v>
       </c>
       <c r="C20" t="n">
-        <v>284.0837513302792</v>
+        <v>291.141791225306</v>
       </c>
       <c r="D20" t="n">
-        <v>273.4939011799546</v>
+        <v>280.5519410749814</v>
       </c>
       <c r="E20" t="n">
-        <v>300.7412296315334</v>
+        <v>307.7992695265602</v>
       </c>
       <c r="F20" t="n">
-        <v>325.6869053009831</v>
+        <v>2.994269642363236</v>
       </c>
       <c r="G20" t="n">
-        <v>329.7325852127251</v>
+        <v>336.7906251077519</v>
       </c>
       <c r="H20" t="n">
-        <v>213.4186239465921</v>
+        <v>220.4766638416189</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>27.9986213474475</v>
+        <v>35.05666124247425</v>
       </c>
       <c r="T20" t="n">
-        <v>122.7288296988918</v>
+        <v>129.7868695939186</v>
       </c>
       <c r="U20" t="n">
-        <v>169.8060315181737</v>
+        <v>176.8640714132004</v>
       </c>
       <c r="V20" t="n">
-        <v>246.5631180294066</v>
+        <v>253.6211579244333</v>
       </c>
       <c r="W20" t="n">
-        <v>268.0518282766847</v>
+        <v>275.1098681717114</v>
       </c>
       <c r="X20" t="n">
-        <v>288.5419602377407</v>
+        <v>295.6000001327674</v>
       </c>
       <c r="Y20" t="n">
-        <v>305.0487982153252</v>
+        <v>312.106838110352</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>105.7008796362357</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>93.11572055292623</v>
       </c>
       <c r="D22" t="n">
-        <v>67.42633257748402</v>
+        <v>140.6571441071948</v>
       </c>
       <c r="E22" t="n">
-        <v>65.24482220584083</v>
+        <v>72.30286210086757</v>
       </c>
       <c r="F22" t="n">
-        <v>64.23190758220291</v>
+        <v>71.28994747722965</v>
       </c>
       <c r="G22" t="n">
-        <v>84.83666781829989</v>
+        <v>91.89470771332662</v>
       </c>
       <c r="H22" t="n">
-        <v>63.56587447359244</v>
+        <v>70.62391436861918</v>
       </c>
       <c r="I22" t="n">
-        <v>15.16327996910976</v>
+        <v>22.22131986413651</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>7.743012229318992</v>
+        <v>14.80105212434574</v>
       </c>
       <c r="S22" t="n">
-        <v>108.5798848907135</v>
+        <v>115.6379247857403</v>
       </c>
       <c r="T22" t="n">
-        <v>138.3598088354408</v>
+        <v>145.4178487304676</v>
       </c>
       <c r="U22" t="n">
-        <v>205.0226977648845</v>
+        <v>212.0807376599113</v>
       </c>
       <c r="V22" t="n">
-        <v>170.9485028830996</v>
+        <v>178.0065427781264</v>
       </c>
       <c r="W22" t="n">
-        <v>205.3338578958626</v>
+        <v>212.3918977908894</v>
       </c>
       <c r="X22" t="n">
-        <v>144.5205149483088</v>
+        <v>151.5785548433356</v>
       </c>
       <c r="Y22" t="n">
-        <v>154.1186419850225</v>
+        <v>144.4535528063932</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>301.5447012227522</v>
+        <v>308.602741117779</v>
       </c>
       <c r="C23" t="n">
-        <v>284.0837513302792</v>
+        <v>291.141791225306</v>
       </c>
       <c r="D23" t="n">
-        <v>273.4939011799546</v>
+        <v>280.5519410749814</v>
       </c>
       <c r="E23" t="n">
-        <v>300.7412296315334</v>
+        <v>307.7992695265602</v>
       </c>
       <c r="F23" t="n">
-        <v>325.6869053009831</v>
+        <v>332.7449451960098</v>
       </c>
       <c r="G23" t="n">
-        <v>329.7325852127251</v>
+        <v>336.7906251077519</v>
       </c>
       <c r="H23" t="n">
-        <v>213.4186239465921</v>
+        <v>220.4766638416189</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>27.9986213474475</v>
+        <v>35.05666124247423</v>
       </c>
       <c r="T23" t="n">
-        <v>122.7288296988918</v>
+        <v>129.7868695939185</v>
       </c>
       <c r="U23" t="n">
-        <v>169.8060315181737</v>
+        <v>176.8640714132004</v>
       </c>
       <c r="V23" t="n">
-        <v>246.5631180294066</v>
+        <v>253.6211579244333</v>
       </c>
       <c r="W23" t="n">
-        <v>268.0518282766847</v>
+        <v>275.1098681717114</v>
       </c>
       <c r="X23" t="n">
-        <v>288.5419602377407</v>
+        <v>295.6000001327674</v>
       </c>
       <c r="Y23" t="n">
-        <v>305.0487982153252</v>
+        <v>312.106838110352</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>98.64283974120896</v>
+        <v>105.7008796362357</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>93.11572055292623</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>74.48437247251076</v>
       </c>
       <c r="E25" t="n">
-        <v>65.24482220584083</v>
+        <v>72.30286210086757</v>
       </c>
       <c r="F25" t="n">
-        <v>64.23190758220291</v>
+        <v>71.28994747722965</v>
       </c>
       <c r="G25" t="n">
-        <v>84.83666781829989</v>
+        <v>91.89470771332662</v>
       </c>
       <c r="H25" t="n">
-        <v>63.56587447359244</v>
+        <v>70.62391436861918</v>
       </c>
       <c r="I25" t="n">
-        <v>15.16327996910976</v>
+        <v>22.2213198641365</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>24.46614130297514</v>
+        <v>14.80105212434573</v>
       </c>
       <c r="S25" t="n">
-        <v>108.5798848907135</v>
+        <v>115.6379247857403</v>
       </c>
       <c r="T25" t="n">
-        <v>138.3598088354408</v>
+        <v>145.4178487304676</v>
       </c>
       <c r="U25" t="n">
-        <v>205.0226977648845</v>
+        <v>212.0807376599113</v>
       </c>
       <c r="V25" t="n">
-        <v>170.9485028830996</v>
+        <v>244.1793144128108</v>
       </c>
       <c r="W25" t="n">
-        <v>205.3338578958626</v>
+        <v>212.3918977908894</v>
       </c>
       <c r="X25" t="n">
-        <v>144.5205149483088</v>
+        <v>151.5785548433356</v>
       </c>
       <c r="Y25" t="n">
-        <v>137.3955129113664</v>
+        <v>144.4535528063932</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>312.7385393449467</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>295.2775894524737</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>284.6877393021491</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
-        <v>311.9350677537279</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>336.8807434231776</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>340.9264233349196</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>224.6124620687866</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>39.192459469642</v>
+        <v>62.21262516958324</v>
       </c>
       <c r="T26" t="n">
-        <v>133.9226678210863</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
-        <v>180.9998696403682</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>257.7569561516011</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>279.2456663988792</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>299.7357983599352</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>316.2426363375197</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>109.8366778634035</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>97.251518780094</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
-        <v>78.62017069967852</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>76.43866032803534</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>75.42574570439741</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>96.03050594049439</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>74.75971259578695</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>26.35711809130426</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>18.9368503515135</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S28" t="n">
-        <v>119.7737230129081</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>149.5536469576354</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>216.216535887079</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>182.1423410052942</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>216.5276960180572</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>155.7143530705033</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>148.5893510335609</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2795,16 +2795,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572825</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3032,16 +3032,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958325</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353758</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E35" t="n">
-        <v>284.245649844157</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007101</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307972</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420301</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893082</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279488</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383247</v>
+        <v>82.14725995383237</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052301</v>
+        <v>69.56210087052291</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010753</v>
+        <v>93.13769105450112</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846435</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482642</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621596</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333707</v>
+        <v>92.08430510333697</v>
       </c>
       <c r="T37" t="n">
-        <v>174.156034688781</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957232</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084862</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.89993312399</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353758</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.245649844157</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007101</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307972</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420301</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893082</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279488</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383247</v>
+        <v>82.14725995383237</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052301</v>
+        <v>69.56210087052291</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010753</v>
+        <v>50.93075279010743</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846425</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482632</v>
       </c>
       <c r="G40" t="n">
-        <v>68.3410880309234</v>
+        <v>68.3410880309233</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621586</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>135.6235431859963</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480644</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>188.527117977508</v>
+        <v>240.818923618226</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957232</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084862</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.89993312399</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V41" t="n">
         <v>230.06753824203</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383237</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052291</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010743</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846425</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482629</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092327</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621583</v>
+        <v>98.02980050866704</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>135.6235431859976</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
         <v>154.4529230957231</v>
@@ -3964,7 +3964,7 @@
         <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
         <v>256.998321392578</v>
@@ -3992,7 +3992,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007081</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
         <v>153.310451730797</v>
@@ -4043,7 +4043,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846415</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G46" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H46" t="n">
-        <v>89.27723295061013</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>50.9595058224516</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333687</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
         <v>154.452923095723</v>
@@ -4198,10 +4198,10 @@
         <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2007.82427045876</v>
+        <v>2153.470276700095</v>
       </c>
       <c r="C11" t="n">
-        <v>1650.168660712484</v>
+        <v>1811.938026352723</v>
       </c>
       <c r="D11" t="n">
-        <v>1303.20986929987</v>
+        <v>1481.102594339011</v>
       </c>
       <c r="E11" t="n">
-        <v>1187.238045929421</v>
+        <v>1122.744608333807</v>
       </c>
       <c r="F11" t="n">
-        <v>787.5590483339491</v>
+        <v>739.1889701372386</v>
       </c>
       <c r="G11" t="n">
-        <v>383.7812367839499</v>
+        <v>351.5345179861429</v>
       </c>
       <c r="H11" t="n">
-        <v>97.37889789840938</v>
+        <v>81.25553849950587</v>
       </c>
       <c r="I11" t="n">
-        <v>66.21592154951941</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J11" t="n">
-        <v>254.0744928369595</v>
+        <v>254.0744928369591</v>
       </c>
       <c r="K11" t="n">
-        <v>586.3643121319024</v>
+        <v>586.3643121319019</v>
       </c>
       <c r="L11" t="n">
-        <v>1035.500977900982</v>
+        <v>1035.500977900981</v>
       </c>
       <c r="M11" t="n">
         <v>1566.921495383895</v>
       </c>
       <c r="N11" t="n">
-        <v>2111.554760801562</v>
+        <v>2111.554760801561</v>
       </c>
       <c r="O11" t="n">
         <v>2612.501248106874</v>
@@ -5063,28 +5063,28 @@
         <v>3252.534341412641</v>
       </c>
       <c r="R11" t="n">
-        <v>3310.796077475973</v>
+        <v>3310.796077475972</v>
       </c>
       <c r="S11" t="n">
-        <v>3310.796077475973</v>
+        <v>3227.656105121272</v>
       </c>
       <c r="T11" t="n">
-        <v>3310.796077475973</v>
+        <v>3227.656105121272</v>
       </c>
       <c r="U11" t="n">
-        <v>3068.571526456815</v>
+        <v>3227.656105121272</v>
       </c>
       <c r="V11" t="n">
-        <v>2748.81554630738</v>
+        <v>3227.656105121272</v>
       </c>
       <c r="W11" t="n">
-        <v>2748.81554630738</v>
+        <v>2902.317716444197</v>
       </c>
       <c r="X11" t="n">
-        <v>2386.656695240436</v>
+        <v>2875.34891555395</v>
       </c>
       <c r="Y11" t="n">
-        <v>2007.82427045876</v>
+        <v>2512.639850171177</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3156003142904</v>
+        <v>931.3156003142899</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8625710331634</v>
+        <v>756.8625710331629</v>
       </c>
       <c r="D12" t="n">
-        <v>607.928161371912</v>
+        <v>607.9281613719115</v>
       </c>
       <c r="E12" t="n">
-        <v>448.6907063664564</v>
+        <v>448.690706366456</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1561483933415</v>
+        <v>302.156148393341</v>
       </c>
       <c r="G12" t="n">
-        <v>165.7864839520676</v>
+        <v>165.7864839520666</v>
       </c>
       <c r="H12" t="n">
         <v>75.22119252365749</v>
       </c>
       <c r="I12" t="n">
-        <v>66.21592154951946</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J12" t="n">
-        <v>159.2853526912741</v>
+        <v>159.2853526912738</v>
       </c>
       <c r="K12" t="n">
-        <v>396.5106591183472</v>
+        <v>396.5106591183467</v>
       </c>
       <c r="L12" t="n">
-        <v>761.8119001858313</v>
+        <v>761.811900185831</v>
       </c>
       <c r="M12" t="n">
         <v>1207.458086537445</v>
       </c>
       <c r="N12" t="n">
-        <v>1679.30784629592</v>
+        <v>1679.307846295919</v>
       </c>
       <c r="O12" t="n">
-        <v>2088.738397943177</v>
+        <v>2088.738397943176</v>
       </c>
       <c r="P12" t="n">
-        <v>2398.009445431871</v>
+        <v>2398.00944543187</v>
       </c>
       <c r="Q12" t="n">
         <v>2554.829753957941</v>
@@ -5154,7 +5154,7 @@
         <v>2004.532201264789</v>
       </c>
       <c r="V12" t="n">
-        <v>1769.380093033047</v>
+        <v>1769.380093033046</v>
       </c>
       <c r="W12" t="n">
         <v>1515.142736304845</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>633.3767868186865</v>
+        <v>516.4974115705987</v>
       </c>
       <c r="C13" t="n">
-        <v>475.7475110849155</v>
+        <v>516.4974115705987</v>
       </c>
       <c r="D13" t="n">
-        <v>336.9377788667156</v>
+        <v>516.4974115705987</v>
       </c>
       <c r="E13" t="n">
-        <v>336.9377788667156</v>
+        <v>396.014584581245</v>
       </c>
       <c r="F13" t="n">
-        <v>201.3547385629411</v>
+        <v>276.5549036763739</v>
       </c>
       <c r="G13" t="n">
-        <v>201.3547385629411</v>
+        <v>136.2768303774092</v>
       </c>
       <c r="H13" t="n">
-        <v>152.4001897763127</v>
+        <v>136.2768303774092</v>
       </c>
       <c r="I13" t="n">
-        <v>66.21592154951946</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J13" t="n">
-        <v>122.0391154911514</v>
+        <v>137.8416200380168</v>
       </c>
       <c r="K13" t="n">
-        <v>336.4815422998882</v>
+        <v>368.0865513936189</v>
       </c>
       <c r="L13" t="n">
-        <v>663.3213367116018</v>
+        <v>710.7288503521979</v>
       </c>
       <c r="M13" t="n">
-        <v>1017.714786953687</v>
+        <v>1080.924805141148</v>
       </c>
       <c r="N13" t="n">
-        <v>1369.379672285754</v>
+        <v>1448.392195020081</v>
       </c>
       <c r="O13" t="n">
-        <v>1679.028788659227</v>
+        <v>1773.843815940419</v>
       </c>
       <c r="P13" t="n">
-        <v>1922.065839080939</v>
+        <v>2032.683370908996</v>
       </c>
       <c r="Q13" t="n">
-        <v>2010.306381819424</v>
+        <v>2136.726418194346</v>
       </c>
       <c r="R13" t="n">
-        <v>1931.535384887336</v>
+        <v>2136.726418194346</v>
       </c>
       <c r="S13" t="n">
-        <v>1751.060500978223</v>
+        <v>2009.91109497479</v>
       </c>
       <c r="T13" t="n">
-        <v>1751.060500978223</v>
+        <v>1815.551232179538</v>
       </c>
       <c r="U13" t="n">
-        <v>1473.264241119817</v>
+        <v>1553.878331720036</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.886660108066</v>
+        <v>1326.624110107188</v>
       </c>
       <c r="W13" t="n">
-        <v>1229.886660108066</v>
+        <v>1064.637206663268</v>
       </c>
       <c r="X13" t="n">
-        <v>1013.204016404185</v>
+        <v>864.0779223582897</v>
       </c>
       <c r="Y13" t="n">
-        <v>803.7183444547903</v>
+        <v>670.715609807799</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1872.036042047588</v>
+        <v>1794.797586517484</v>
       </c>
       <c r="C14" t="n">
-        <v>1537.633124927515</v>
+        <v>1453.265336170112</v>
       </c>
       <c r="D14" t="n">
-        <v>1213.927026141104</v>
+        <v>1122.429904156401</v>
       </c>
       <c r="E14" t="n">
-        <v>862.6983733631989</v>
+        <v>1122.429904156401</v>
       </c>
       <c r="F14" t="n">
-        <v>717.4862662779333</v>
+        <v>738.8742659598325</v>
       </c>
       <c r="G14" t="n">
-        <v>336.9734159432691</v>
+        <v>351.2320823978685</v>
       </c>
       <c r="H14" t="n">
-        <v>73.94941537237551</v>
+        <v>81.07874859967541</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218357</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296687</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3249.874752956606</v>
+        <v>3242.745419729306</v>
       </c>
       <c r="T14" t="n">
-        <v>3078.456605161167</v>
+        <v>3064.197938706568</v>
       </c>
       <c r="U14" t="n">
-        <v>2859.485728255343</v>
+        <v>2838.097728573443</v>
       </c>
       <c r="V14" t="n">
-        <v>2562.982440732111</v>
+        <v>2534.465107822911</v>
       </c>
       <c r="W14" t="n">
-        <v>2562.982440732111</v>
+        <v>2534.465107822911</v>
       </c>
       <c r="X14" t="n">
-        <v>2224.07628229137</v>
+        <v>2516.676225371339</v>
       </c>
       <c r="Y14" t="n">
-        <v>2224.07628229137</v>
+        <v>2153.967159988566</v>
       </c>
     </row>
     <row r="15">
@@ -5331,70 +5331,70 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.021302392779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.1394421074365</v>
+        <v>497.3405009340686</v>
       </c>
       <c r="C16" t="n">
-        <v>599.762858999869</v>
+        <v>497.3405009340686</v>
       </c>
       <c r="D16" t="n">
-        <v>599.762858999869</v>
+        <v>374.6541281147723</v>
       </c>
       <c r="E16" t="n">
-        <v>486.409365237815</v>
+        <v>374.6541281147723</v>
       </c>
       <c r="F16" t="n">
-        <v>374.0790175602438</v>
+        <v>255.1944472099015</v>
       </c>
       <c r="G16" t="n">
-        <v>240.9357807553019</v>
+        <v>255.1944472099015</v>
       </c>
       <c r="H16" t="n">
-        <v>129.2781937934989</v>
+        <v>136.4075270207987</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>145.5066126630335</v>
+        <v>138.5191531669569</v>
       </c>
       <c r="K16" t="n">
-        <v>383.3656593958243</v>
+        <v>369.3907404036713</v>
       </c>
       <c r="L16" t="n">
-        <v>733.7973216282348</v>
+        <v>712.8349431400054</v>
       </c>
       <c r="M16" t="n">
-        <v>1111.826231011698</v>
+        <v>1083.876393027392</v>
       </c>
       <c r="N16" t="n">
-        <v>1487.106471501477</v>
+        <v>1452.169174021095</v>
       </c>
       <c r="O16" t="n">
-        <v>1820.307934205805</v>
+        <v>1778.383177229346</v>
       </c>
       <c r="P16" t="n">
-        <v>2086.787298423379</v>
+        <v>2037.875081950844</v>
       </c>
       <c r="Q16" t="n">
-        <v>2198.269458359808</v>
+        <v>2142.369782391196</v>
       </c>
       <c r="R16" t="n">
-        <v>2142.998600937675</v>
+        <v>2142.369782391196</v>
       </c>
       <c r="S16" t="n">
-        <v>1985.872316584841</v>
+        <v>1978.114164811062</v>
       </c>
       <c r="T16" t="n">
-        <v>1798.665300974706</v>
+        <v>1783.777815973627</v>
       </c>
       <c r="U16" t="n">
-        <v>1544.122033920689</v>
+        <v>1522.10521569231</v>
       </c>
       <c r="V16" t="n">
-        <v>1368.659942724927</v>
+        <v>1294.850994079463</v>
       </c>
       <c r="W16" t="n">
-        <v>1113.802372508306</v>
+        <v>1045.480296026738</v>
       </c>
       <c r="X16" t="n">
-        <v>920.3724214306274</v>
+        <v>844.9210117217597</v>
       </c>
       <c r="Y16" t="n">
-        <v>734.1394421074365</v>
+        <v>651.5586991712689</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1811.115143302959</v>
+        <v>1631.187441816637</v>
       </c>
       <c r="C17" t="n">
-        <v>1524.16185913096</v>
+        <v>1337.104824417338</v>
       </c>
       <c r="D17" t="n">
-        <v>1247.905393292622</v>
+        <v>1053.719025351701</v>
       </c>
       <c r="E17" t="n">
-        <v>944.12637346279</v>
+        <v>742.810672294569</v>
       </c>
       <c r="F17" t="n">
-        <v>615.1497014415949</v>
+        <v>406.7046670460742</v>
       </c>
       <c r="G17" t="n">
-        <v>282.0864840550037</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5513,10 +5513,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3290.195052677378</v>
       </c>
       <c r="T17" t="n">
-        <v>3235.105452375595</v>
+        <v>3159.097204602713</v>
       </c>
       <c r="U17" t="n">
-        <v>3235.105452375595</v>
+        <v>2980.446627417662</v>
       </c>
       <c r="V17" t="n">
-        <v>2986.051797800437</v>
+        <v>2724.263639615204</v>
       </c>
       <c r="W17" t="n">
-        <v>2715.292375298735</v>
+        <v>2446.374883886203</v>
       </c>
       <c r="X17" t="n">
-        <v>2423.835849806068</v>
+        <v>2258.166814774345</v>
       </c>
       <c r="Y17" t="n">
-        <v>2115.705750598669</v>
+        <v>1942.907382339646</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
@@ -5598,7 +5598,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>681.5675165997451</v>
+        <v>634.2955671233965</v>
       </c>
       <c r="C19" t="n">
-        <v>512.6313336718382</v>
+        <v>540.2392837366024</v>
       </c>
       <c r="D19" t="n">
-        <v>362.5146942595025</v>
+        <v>398.1613603960011</v>
       </c>
       <c r="E19" t="n">
-        <v>296.6108334455218</v>
+        <v>325.1281663547207</v>
       </c>
       <c r="F19" t="n">
-        <v>231.7301187160239</v>
+        <v>253.1181183979231</v>
       </c>
       <c r="G19" t="n">
-        <v>146.0365148591553</v>
+        <v>160.2951813137548</v>
       </c>
       <c r="H19" t="n">
-        <v>81.8285608454256</v>
+        <v>88.95789407272534</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
@@ -5695,28 +5695,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1919.473323614433</v>
+        <v>1912.343990387134</v>
       </c>
       <c r="S19" t="n">
-        <v>1809.796672209672</v>
+        <v>1795.538005755073</v>
       </c>
       <c r="T19" t="n">
-        <v>1670.039289547611</v>
+        <v>1648.651289865711</v>
       </c>
       <c r="U19" t="n">
-        <v>1462.945655441667</v>
+        <v>1434.428322532468</v>
       </c>
       <c r="V19" t="n">
-        <v>1290.270400004192</v>
+        <v>1254.623733867693</v>
       </c>
       <c r="W19" t="n">
-        <v>1082.862462735644</v>
+        <v>1040.086463371845</v>
       </c>
       <c r="X19" t="n">
-        <v>936.8821446060396</v>
+        <v>886.9768120149408</v>
       </c>
       <c r="Y19" t="n">
-        <v>798.0987982309219</v>
+        <v>741.0641324125235</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1811.115143302959</v>
+        <v>1520.809652208528</v>
       </c>
       <c r="C20" t="n">
-        <v>1524.16185913096</v>
+        <v>1226.727034809229</v>
       </c>
       <c r="D20" t="n">
-        <v>1247.905393292622</v>
+        <v>943.3412357435915</v>
       </c>
       <c r="E20" t="n">
-        <v>944.1263734627898</v>
+        <v>632.4328826864599</v>
       </c>
       <c r="F20" t="n">
-        <v>615.1497014415947</v>
+        <v>629.408367896194</v>
       </c>
       <c r="G20" t="n">
-        <v>282.0864840550038</v>
+        <v>289.2158172823034</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
@@ -5762,40 +5762,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3297.324385904679</v>
+        <v>3290.195052677378</v>
       </c>
       <c r="T20" t="n">
-        <v>3173.355871057313</v>
+        <v>3159.097204602712</v>
       </c>
       <c r="U20" t="n">
-        <v>3001.834627099563</v>
+        <v>2980.446627417663</v>
       </c>
       <c r="V20" t="n">
-        <v>2752.780972524404</v>
+        <v>2724.263639615205</v>
       </c>
       <c r="W20" t="n">
-        <v>2482.021550022702</v>
+        <v>2446.374883886203</v>
       </c>
       <c r="X20" t="n">
-        <v>2190.565024530036</v>
+        <v>2147.789025166237</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.434925322636</v>
+        <v>1832.529592731537</v>
       </c>
     </row>
     <row r="21">
@@ -5826,16 +5826,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,10 +5847,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>599.5582838313327</v>
+        <v>634.295567123396</v>
       </c>
       <c r="C22" t="n">
-        <v>430.6221009034257</v>
+        <v>540.2392837366019</v>
       </c>
       <c r="D22" t="n">
-        <v>362.5146942595025</v>
+        <v>398.1613603960011</v>
       </c>
       <c r="E22" t="n">
-        <v>296.6108334455218</v>
+        <v>325.1281663547207</v>
       </c>
       <c r="F22" t="n">
-        <v>231.730118716024</v>
+        <v>253.1181183979231</v>
       </c>
       <c r="G22" t="n">
-        <v>146.0365148591554</v>
+        <v>160.2951813137548</v>
       </c>
       <c r="H22" t="n">
-        <v>81.82856084542561</v>
+        <v>88.95789407272534</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,31 +5929,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1919.473323614433</v>
+        <v>1912.343990387133</v>
       </c>
       <c r="S22" t="n">
-        <v>1809.796672209672</v>
+        <v>1795.538005755072</v>
       </c>
       <c r="T22" t="n">
-        <v>1670.039289547611</v>
+        <v>1648.651289865711</v>
       </c>
       <c r="U22" t="n">
-        <v>1462.945655441667</v>
+        <v>1434.428322532467</v>
       </c>
       <c r="V22" t="n">
-        <v>1290.270400004192</v>
+        <v>1254.623733867693</v>
       </c>
       <c r="W22" t="n">
-        <v>1082.862462735644</v>
+        <v>1040.086463371845</v>
       </c>
       <c r="X22" t="n">
-        <v>936.8821446060396</v>
+        <v>886.9768120149404</v>
       </c>
       <c r="Y22" t="n">
-        <v>781.2067486615724</v>
+        <v>741.064132412523</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1815.875772390225</v>
+        <v>1860.68872410468</v>
       </c>
       <c r="C23" t="n">
-        <v>1528.922488218225</v>
+        <v>1566.606106705381</v>
       </c>
       <c r="D23" t="n">
-        <v>1252.666022379887</v>
+        <v>1283.220307639743</v>
       </c>
       <c r="E23" t="n">
-        <v>948.8870025500556</v>
+        <v>972.3119545826122</v>
       </c>
       <c r="F23" t="n">
-        <v>619.9103305288605</v>
+        <v>636.2059493341173</v>
       </c>
       <c r="G23" t="n">
-        <v>286.8471131422697</v>
+        <v>296.0133987202265</v>
       </c>
       <c r="H23" t="n">
-        <v>71.27274551944942</v>
+        <v>73.30969787010646</v>
       </c>
       <c r="I23" t="n">
-        <v>71.27274551944942</v>
+        <v>73.30969787010646</v>
       </c>
       <c r="J23" t="n">
-        <v>260.1518764784748</v>
+        <v>262.1888288291319</v>
       </c>
       <c r="K23" t="n">
-        <v>593.9712501683214</v>
+        <v>596.0082025189784</v>
       </c>
       <c r="L23" t="n">
-        <v>1045.00546341673</v>
+        <v>1047.042415767387</v>
       </c>
       <c r="M23" t="n">
-        <v>1578.537368088655</v>
+        <v>1580.574320439312</v>
       </c>
       <c r="N23" t="n">
-        <v>2125.316185147437</v>
+        <v>2127.353137498094</v>
       </c>
       <c r="O23" t="n">
-        <v>2628.288656026774</v>
+        <v>2630.325608377431</v>
       </c>
       <c r="P23" t="n">
-        <v>3256.333847659986</v>
+        <v>3343.680695824377</v>
       </c>
       <c r="Q23" t="n">
-        <v>3504.620209415668</v>
+        <v>3606.46782694852</v>
       </c>
       <c r="R23" t="n">
-        <v>3563.63727597247</v>
+        <v>3665.484893505323</v>
       </c>
       <c r="S23" t="n">
-        <v>3535.355840267978</v>
+        <v>3630.074124573531</v>
       </c>
       <c r="T23" t="n">
-        <v>3411.387325420613</v>
+        <v>3498.976276498865</v>
       </c>
       <c r="U23" t="n">
-        <v>3239.866081462861</v>
+        <v>3320.325699313815</v>
       </c>
       <c r="V23" t="n">
-        <v>2990.812426887703</v>
+        <v>3064.142711511357</v>
       </c>
       <c r="W23" t="n">
-        <v>2720.053004386001</v>
+        <v>2786.253955782355</v>
       </c>
       <c r="X23" t="n">
-        <v>2428.596478893333</v>
+        <v>2487.668097062388</v>
       </c>
       <c r="Y23" t="n">
-        <v>2120.466379685934</v>
+        <v>2172.408664627689</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>946.3044835683746</v>
+        <v>948.3414359190316</v>
       </c>
       <c r="C24" t="n">
-        <v>771.8514542872476</v>
+        <v>773.8884066379046</v>
       </c>
       <c r="D24" t="n">
-        <v>622.9170446259964</v>
+        <v>624.9539969766533</v>
       </c>
       <c r="E24" t="n">
-        <v>463.6795896205409</v>
+        <v>465.7165419711979</v>
       </c>
       <c r="F24" t="n">
-        <v>317.1450316474259</v>
+        <v>319.1819839980828</v>
       </c>
       <c r="G24" t="n">
-        <v>180.7819314800439</v>
+        <v>182.818883830701</v>
       </c>
       <c r="H24" t="n">
-        <v>90.28003711791146</v>
+        <v>92.31698946856849</v>
       </c>
       <c r="I24" t="n">
-        <v>71.27274551944942</v>
+        <v>73.30969787010646</v>
       </c>
       <c r="J24" t="n">
-        <v>164.9500150100667</v>
+        <v>166.9869673607238</v>
       </c>
       <c r="K24" t="n">
-        <v>403.2142139904139</v>
+        <v>405.2511663410709</v>
       </c>
       <c r="L24" t="n">
-        <v>769.9123743030793</v>
+        <v>771.9493266537363</v>
       </c>
       <c r="M24" t="n">
-        <v>1217.188699525395</v>
+        <v>1219.225651876052</v>
       </c>
       <c r="N24" t="n">
-        <v>1690.71174307985</v>
+        <v>1692.748695430507</v>
       </c>
       <c r="O24" t="n">
-        <v>2101.673022497905</v>
+        <v>2103.709974848562</v>
       </c>
       <c r="P24" t="n">
-        <v>2412.172613974008</v>
+        <v>2414.209566324665</v>
       </c>
       <c r="Q24" t="n">
-        <v>2569.814171620607</v>
+        <v>2571.851123971264</v>
       </c>
       <c r="R24" t="n">
-        <v>2569.669818213123</v>
+        <v>2571.70677056378</v>
       </c>
       <c r="S24" t="n">
-        <v>2440.231931706603</v>
+        <v>2442.26888405726</v>
       </c>
       <c r="T24" t="n">
-        <v>2247.588931384458</v>
+        <v>2249.625883735115</v>
       </c>
       <c r="U24" t="n">
-        <v>2019.521084518874</v>
+        <v>2021.55803686953</v>
       </c>
       <c r="V24" t="n">
-        <v>1784.368976287131</v>
+        <v>1786.405928637788</v>
       </c>
       <c r="W24" t="n">
-        <v>1530.131619558929</v>
+        <v>1532.168571909586</v>
       </c>
       <c r="X24" t="n">
-        <v>1322.280119353396</v>
+        <v>1324.317071704053</v>
       </c>
       <c r="Y24" t="n">
-        <v>1114.519820588443</v>
+        <v>1116.5567729391</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>686.3281456870111</v>
+        <v>574.2519650919414</v>
       </c>
       <c r="C25" t="n">
-        <v>517.3919627591042</v>
+        <v>480.1956817051472</v>
       </c>
       <c r="D25" t="n">
-        <v>367.2753233467685</v>
+        <v>404.9589418339242</v>
       </c>
       <c r="E25" t="n">
-        <v>301.3714625327878</v>
+        <v>331.9257477926438</v>
       </c>
       <c r="F25" t="n">
-        <v>236.4907478032899</v>
+        <v>259.9156998358462</v>
       </c>
       <c r="G25" t="n">
-        <v>150.7971439464213</v>
+        <v>167.0927627516779</v>
       </c>
       <c r="H25" t="n">
-        <v>86.5891899326916</v>
+        <v>95.75547551064838</v>
       </c>
       <c r="I25" t="n">
-        <v>71.27274551944942</v>
+        <v>73.30969787010646</v>
       </c>
       <c r="J25" t="n">
-        <v>116.395377966385</v>
+        <v>118.432330317042</v>
       </c>
       <c r="K25" t="n">
-        <v>320.3825609152614</v>
+        <v>322.4195132659184</v>
       </c>
       <c r="L25" t="n">
-        <v>636.9423593637575</v>
+        <v>638.9793117144145</v>
       </c>
       <c r="M25" t="n">
-        <v>981.0994049633066</v>
+        <v>983.1363573139636</v>
       </c>
       <c r="N25" t="n">
-        <v>1322.507781669171</v>
+        <v>1324.544734019828</v>
       </c>
       <c r="O25" t="n">
-        <v>1621.837380589585</v>
+        <v>1623.874332940242</v>
       </c>
       <c r="P25" t="n">
-        <v>1854.444881023244</v>
+        <v>1856.481833373901</v>
       </c>
       <c r="Q25" t="n">
-        <v>1932.055177175759</v>
+        <v>1934.092129526416</v>
       </c>
       <c r="R25" t="n">
-        <v>1907.34190313235</v>
+        <v>1919.141571825057</v>
       </c>
       <c r="S25" t="n">
-        <v>1797.665251727589</v>
+        <v>1802.335587192996</v>
       </c>
       <c r="T25" t="n">
-        <v>1657.907869065527</v>
+        <v>1655.448871303634</v>
       </c>
       <c r="U25" t="n">
-        <v>1450.814234959583</v>
+        <v>1441.225903970391</v>
       </c>
       <c r="V25" t="n">
-        <v>1278.138979522109</v>
+        <v>1194.580131836238</v>
       </c>
       <c r="W25" t="n">
-        <v>1070.731042253561</v>
+        <v>980.0428613403903</v>
       </c>
       <c r="X25" t="n">
-        <v>924.7507241239559</v>
+        <v>826.9332099834858</v>
       </c>
       <c r="Y25" t="n">
-        <v>785.9673777488383</v>
+        <v>681.0205303810684</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1886.94776046765</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1588.687569101515</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1301.124196069041</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0382690450738</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>645.7546898297428</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
-        <v>301.3845652490158</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>74.50329043205964</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>74.50329043205964</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>430.7880704114381</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>764.6074441012846</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L26" t="n">
-        <v>1215.641657349694</v>
+        <v>1635.769886219269</v>
       </c>
       <c r="M26" t="n">
-        <v>1749.173562021618</v>
+        <v>2169.301790891193</v>
       </c>
       <c r="N26" t="n">
-        <v>2295.952379080401</v>
+        <v>2716.080607949976</v>
       </c>
       <c r="O26" t="n">
-        <v>2798.924849959737</v>
+        <v>3355.268050164794</v>
       </c>
       <c r="P26" t="n">
-        <v>3193.699216316916</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q26" t="n">
-        <v>3601.088199371927</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
-        <v>3725.164521602982</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S26" t="n">
-        <v>3685.576178704353</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3550.300756662853</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3367.472605510965</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3107.112043741671</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
-        <v>2825.045714045834</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2522.282281359031</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2202.845274957495</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>949.5350284809848</v>
+        <v>956.1786549456147</v>
       </c>
       <c r="C27" t="n">
-        <v>775.0819991998578</v>
+        <v>781.7256256644877</v>
       </c>
       <c r="D27" t="n">
-        <v>626.1475895386066</v>
+        <v>632.7912160032365</v>
       </c>
       <c r="E27" t="n">
-        <v>466.9101345331511</v>
+        <v>473.553760997781</v>
       </c>
       <c r="F27" t="n">
-        <v>320.3755765600361</v>
+        <v>327.019203024666</v>
       </c>
       <c r="G27" t="n">
-        <v>184.0124763926542</v>
+        <v>190.6561028572846</v>
       </c>
       <c r="H27" t="n">
-        <v>93.51058203052168</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I27" t="n">
-        <v>74.50329043205964</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>168.180559922677</v>
+        <v>174.8241863873068</v>
       </c>
       <c r="K27" t="n">
-        <v>406.4447589030241</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L27" t="n">
-        <v>773.1429192156895</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M27" t="n">
-        <v>1220.419244438006</v>
+        <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1693.94228799246</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
-        <v>2104.903567410515</v>
+        <v>2111.547193875145</v>
       </c>
       <c r="P27" t="n">
-        <v>2415.403158886618</v>
+        <v>2422.046785351248</v>
       </c>
       <c r="Q27" t="n">
-        <v>2573.044716533218</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R27" t="n">
-        <v>2572.900363125732</v>
+        <v>2579.543989590363</v>
       </c>
       <c r="S27" t="n">
-        <v>2443.462476619212</v>
+        <v>2450.106103083843</v>
       </c>
       <c r="T27" t="n">
-        <v>2250.819476297068</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U27" t="n">
-        <v>2022.751629431484</v>
+        <v>2029.395255896114</v>
       </c>
       <c r="V27" t="n">
-        <v>1787.599521199741</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W27" t="n">
-        <v>1533.362164471539</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X27" t="n">
-        <v>1325.510664266007</v>
+        <v>1332.154290730637</v>
       </c>
       <c r="Y27" t="n">
-        <v>1117.750365501053</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>604.6885754217475</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C28" t="n">
-        <v>506.4547180681171</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D28" t="n">
-        <v>427.040404230058</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E28" t="n">
-        <v>349.8296362219415</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F28" t="n">
-        <v>273.6420142983078</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>176.6415032473034</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
-        <v>101.1266420394377</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>74.50329043205964</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>119.6259228789952</v>
+        <v>172.7749345960305</v>
       </c>
       <c r="K28" t="n">
-        <v>323.6131058278716</v>
+        <v>423.2675027973136</v>
       </c>
       <c r="L28" t="n">
-        <v>640.1729042763675</v>
+        <v>786.3326864982164</v>
       </c>
       <c r="M28" t="n">
-        <v>984.3299498759164</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
-        <v>1325.738326581781</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O28" t="n">
-        <v>1625.067925502195</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P28" t="n">
-        <v>1857.675425935854</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q28" t="n">
-        <v>1935.285722088369</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>1916.157590420173</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>1795.174031821276</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1644.109741965079</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>1425.709200664999</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1241.727038033389</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1023.012193570705</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
-        <v>865.7249682469641</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>715.6347146777106</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E29" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467786</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
         <v>81.14691689668915</v>
@@ -6461,28 +6461,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>393.2994530991685</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>727.1188267890151</v>
+        <v>792.1780824632688</v>
       </c>
       <c r="L29" t="n">
-        <v>1178.153040037424</v>
+        <v>1243.212295711678</v>
       </c>
       <c r="M29" t="n">
-        <v>1711.684944709349</v>
+        <v>1776.744200383602</v>
       </c>
       <c r="N29" t="n">
-        <v>2258.463761768131</v>
+        <v>2323.523017442385</v>
       </c>
       <c r="O29" t="n">
-        <v>2761.436232647468</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094414</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D30" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F30" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E31" t="n">
         <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
         <v>229.7905149643394</v>
@@ -6619,25 +6619,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982164</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F32" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467779</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
         <v>81.14691689668915</v>
@@ -6698,25 +6698,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>1588.411539465894</v>
+        <v>2200.835586644152</v>
       </c>
       <c r="N32" t="n">
-        <v>2568.163811692541</v>
+        <v>2747.614403702934</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164795</v>
+        <v>3250.586874582271</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521973</v>
+        <v>3645.361240939449</v>
       </c>
       <c r="Q32" t="n">
         <v>3998.328778277655</v>
@@ -6731,7 +6731,7 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
         <v>3346.282596468334</v>
@@ -6740,7 +6740,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257039</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
         <v>449.4840331913841</v>
@@ -6847,7 +6847,7 @@
         <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6859,10 +6859,10 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6874,7 +6874,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.972430572251</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,64 +6920,64 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464975</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
-        <v>265.424282249573</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710111</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
         <v>1999.070337960652</v>
@@ -7005,34 +7005,34 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
         <v>2565.053542533341</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>598.2565075725911</v>
+        <v>839.5784050866012</v>
       </c>
       <c r="C37" t="n">
-        <v>527.9917592185275</v>
+        <v>769.3136567325375</v>
       </c>
       <c r="D37" t="n">
-        <v>476.546554380035</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E37" t="n">
-        <v>427.3048953714851</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F37" t="n">
-        <v>379.086382447418</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G37" t="n">
-        <v>211.383545822137</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1744.44964124669</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T37" t="n">
-        <v>1568.534454692366</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U37" t="n">
-        <v>1279.43158781801</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V37" t="n">
-        <v>1123.418534185966</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W37" t="n">
-        <v>932.6727987228485</v>
+        <v>1173.994696236858</v>
       </c>
       <c r="X37" t="n">
-        <v>803.3546823986744</v>
+        <v>1044.676579912684</v>
       </c>
       <c r="Y37" t="n">
-        <v>681.2335378289876</v>
+        <v>922.5554353429975</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103805</v>
@@ -7163,58 +7163,58 @@
         <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.424282249573</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
         <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
         <v>1999.070337960652</v>
@@ -7242,22 +7242,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>795.5993767202776</v>
+        <v>499.5850729987473</v>
       </c>
       <c r="C40" t="n">
-        <v>725.334628366214</v>
+        <v>429.3203246446837</v>
       </c>
       <c r="D40" t="n">
-        <v>673.8894235277215</v>
+        <v>377.8751198061913</v>
       </c>
       <c r="E40" t="n">
-        <v>525.9763299453284</v>
+        <v>328.6334607976416</v>
       </c>
       <c r="F40" t="n">
-        <v>379.0863824474181</v>
+        <v>280.4149478735746</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>211.3835458221369</v>
       </c>
       <c r="H40" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1790.30107012284</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1667.205889266209</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U40" t="n">
-        <v>1476.774456965696</v>
+        <v>1180.760153244165</v>
       </c>
       <c r="V40" t="n">
-        <v>1320.761403333652</v>
+        <v>1024.747099612121</v>
       </c>
       <c r="W40" t="n">
-        <v>1130.015667870535</v>
+        <v>834.0013641490043</v>
       </c>
       <c r="X40" t="n">
-        <v>1000.697551546361</v>
+        <v>704.6832478248303</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.5764069766741</v>
+        <v>582.5621032551436</v>
       </c>
     </row>
     <row r="41">
@@ -7394,10 +7394,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464975</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307331</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495729</v>
@@ -7409,13 +7409,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
@@ -7439,13 +7439,13 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
         <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
         <v>2565.332559049857</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>598.2565075725905</v>
+        <v>651.0765132702857</v>
       </c>
       <c r="C43" t="n">
-        <v>527.991759218527</v>
+        <v>580.811764916222</v>
       </c>
       <c r="D43" t="n">
-        <v>476.5465543800346</v>
+        <v>529.3665600777297</v>
       </c>
       <c r="E43" t="n">
-        <v>328.6334607976415</v>
+        <v>480.1249010691799</v>
       </c>
       <c r="F43" t="n">
-        <v>280.4149478735745</v>
+        <v>333.2349535712696</v>
       </c>
       <c r="G43" t="n">
-        <v>211.3835458221369</v>
+        <v>165.5321169459885</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218342</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1790.301070122839</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>1568.534454692365</v>
+        <v>1522.683025816217</v>
       </c>
       <c r="U43" t="n">
-        <v>1279.431587818008</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V43" t="n">
-        <v>1123.418534185965</v>
+        <v>1176.23853988366</v>
       </c>
       <c r="W43" t="n">
-        <v>932.6727987228476</v>
+        <v>985.4928044205427</v>
       </c>
       <c r="X43" t="n">
-        <v>803.3546823986736</v>
+        <v>856.1746880963688</v>
       </c>
       <c r="Y43" t="n">
-        <v>681.2335378289869</v>
+        <v>734.053543526682</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C44" t="n">
         <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464974</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7646,10 +7646,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329465</v>
@@ -7676,22 +7676,22 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7725,13 +7725,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>543.5641013650711</v>
+        <v>552.4050786964424</v>
       </c>
       <c r="C46" t="n">
-        <v>374.6279184371642</v>
+        <v>482.1403303423789</v>
       </c>
       <c r="D46" t="n">
-        <v>323.182713598672</v>
+        <v>430.6951255038866</v>
       </c>
       <c r="E46" t="n">
-        <v>273.9410545901223</v>
+        <v>282.7820319214935</v>
       </c>
       <c r="F46" t="n">
-        <v>225.7225416660555</v>
+        <v>234.5635189974265</v>
       </c>
       <c r="G46" t="n">
-        <v>156.6911396146179</v>
+        <v>165.5321169459889</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>117.9863647376901</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489163</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T46" t="n">
-        <v>1612.513483058689</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U46" t="n">
-        <v>1422.082050758175</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V46" t="n">
-        <v>1266.068997126132</v>
+        <v>1077.567105309816</v>
       </c>
       <c r="W46" t="n">
-        <v>1075.323261663015</v>
+        <v>886.8213698466993</v>
       </c>
       <c r="X46" t="n">
-        <v>946.005145338841</v>
+        <v>757.5032535225255</v>
       </c>
       <c r="Y46" t="n">
-        <v>725.2125661953108</v>
+        <v>635.3821089528387</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>161.6314357601276</v>
+        <v>156.5688775991082</v>
       </c>
       <c r="K8" t="n">
-        <v>190.9925950457565</v>
+        <v>183.4051326952092</v>
       </c>
       <c r="L8" t="n">
-        <v>199.6686959475721</v>
+        <v>190.2557779724024</v>
       </c>
       <c r="M8" t="n">
-        <v>190.1805655290033</v>
+        <v>179.7068806065027</v>
       </c>
       <c r="N8" t="n">
-        <v>188.5974734030507</v>
+        <v>177.9543133086036</v>
       </c>
       <c r="O8" t="n">
-        <v>191.557206995801</v>
+        <v>181.5071727231025</v>
       </c>
       <c r="P8" t="n">
-        <v>198.3391401554275</v>
+        <v>189.7616684194398</v>
       </c>
       <c r="Q8" t="n">
-        <v>197.6037742171972</v>
+        <v>191.1624501610459</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2745020717304</v>
+        <v>112.2592771130227</v>
       </c>
       <c r="K9" t="n">
-        <v>118.0782172942248</v>
+        <v>112.9247175818279</v>
       </c>
       <c r="L9" t="n">
-        <v>111.9802892978946</v>
+        <v>105.0507729532112</v>
       </c>
       <c r="M9" t="n">
-        <v>111.1233237484204</v>
+        <v>103.0369050183456</v>
       </c>
       <c r="N9" t="n">
-        <v>99.51024068668833</v>
+        <v>91.2097985147183</v>
       </c>
       <c r="O9" t="n">
-        <v>113.4766668992278</v>
+        <v>105.8833839348801</v>
       </c>
       <c r="P9" t="n">
-        <v>110.603379206989</v>
+        <v>104.5091001924486</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.3588606553067</v>
+        <v>120.2849965265185</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>119.6297761705744</v>
+        <v>115.651875977714</v>
       </c>
       <c r="M10" t="n">
-        <v>122.8416306757342</v>
+        <v>118.6474926651256</v>
       </c>
       <c r="N10" t="n">
-        <v>111.9838364083172</v>
+        <v>107.8894256252415</v>
       </c>
       <c r="O10" t="n">
-        <v>123.9534696661878</v>
+        <v>120.1716186084286</v>
       </c>
       <c r="P10" t="n">
-        <v>125.3181232204652</v>
+        <v>122.0820963055934</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.5463950602909335</v>
+        <v>0.546395060290962</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9653,10 +9653,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>235.6270962384178</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>14.64724178632432</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>137.59088013685</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>160.7097184841705</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>124.5185911550038</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>190.2350110279876</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10355,19 +10355,19 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>287.0017854473906</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>105.7385611944685</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>-4.695133171139787e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.07399224623202</v>
+        <v>15.01434414347917</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>371.5400035412861</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>255.924426813323</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.27069843606846</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>192.7773007088598</v>
+        <v>176.8151749039453</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>223.8401797040522</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>300.5962945430259</v>
       </c>
       <c r="W11" t="n">
-        <v>338.0471305952185</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>315.8760238700154</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.0908571715188</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.4595090911033</v>
       </c>
       <c r="E13" t="n">
-        <v>135.2401245243747</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>154.8374183708897</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>85.14461324706133</v>
+        <v>117.647490740909</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.0211611578528</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>37.16083927774608</v>
       </c>
       <c r="T13" t="n">
-        <v>208.3783899722136</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>275.3291602143965</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23501,10 +23501,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>354.7744061451527</v>
       </c>
       <c r="F14" t="n">
-        <v>228.9020559051628</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>315.0269648952772</v>
+        <v>322.085004790304</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>324.964143124303</v>
       </c>
       <c r="Y14" t="n">
-        <v>352.0239348339178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>145.6179763598015</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.0908571715188</v>
       </c>
       <c r="D16" t="n">
-        <v>114.4014691960766</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.2779987194602</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>138.8698443319192</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>61.77618874293832</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>44.21616921788806</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>12.49004333728407</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>220.4766638416189</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>27.9986213474475</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>33.13346415765049</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>169.8060315181736</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>109.2740117120289</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>230.9381170232715</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>329.7506755536466</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1372339.81684266</v>
+        <v>1367956.269774132</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1099295.881276294</v>
+        <v>1142993.44188215</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1164173.269984159</v>
+        <v>1144851.336938342</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1257540.365641579</v>
+        <v>1245348.872170102</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1257540.365641579</v>
+        <v>1245348.872170102</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1296349.264793229</v>
+        <v>1300763.114209064</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1303349.49666942</v>
+        <v>1317745.497037554</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>163855.2677434077</v>
+      </c>
+      <c r="C2" t="n">
         <v>163855.2677434076</v>
       </c>
-      <c r="C2" t="n">
-        <v>163855.2677434077</v>
-      </c>
       <c r="D2" t="n">
-        <v>163858.9093680887</v>
+        <v>163859.8589658845</v>
       </c>
       <c r="E2" t="n">
-        <v>140081.0631857693</v>
+        <v>145719.4581026539</v>
       </c>
       <c r="F2" t="n">
-        <v>148484.4519682436</v>
+        <v>145991.2993171703</v>
       </c>
       <c r="G2" t="n">
-        <v>160531.8191498461</v>
+        <v>158958.7232180428</v>
       </c>
       <c r="H2" t="n">
-        <v>160531.8191498462</v>
+        <v>158958.7232180427</v>
       </c>
       <c r="I2" t="n">
+        <v>164208.3539728566</v>
+      </c>
+      <c r="J2" t="n">
+        <v>164208.3539728565</v>
+      </c>
+      <c r="K2" t="n">
         <v>164208.3539728567</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>164208.3539728566</v>
       </c>
-      <c r="K2" t="n">
-        <v>164208.3539728566</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>164208.3539728567</v>
       </c>
-      <c r="M2" t="n">
-        <v>164208.3539728566</v>
-      </c>
       <c r="N2" t="n">
-        <v>164208.3539728565</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="O2" t="n">
         <v>164208.3539728567</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728567</v>
+        <v>164208.3539728566</v>
       </c>
     </row>
     <row r="3">
@@ -26369,43 +26369,43 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>48730.28686717733</v>
+        <v>61437.30009708251</v>
       </c>
       <c r="E3" t="n">
-        <v>1083476.402159279</v>
+        <v>1084325.638460094</v>
       </c>
       <c r="F3" t="n">
-        <v>21865.14303290602</v>
+        <v>3449.010472953228</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487407</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>15824.3905939357</v>
+        <v>22595.24566942421</v>
       </c>
       <c r="J3" t="n">
-        <v>10565.65866393739</v>
+        <v>25632.01668739001</v>
       </c>
       <c r="K3" t="n">
-        <v>21373.21069935961</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487407</v>
+        <v>37580.10929487404</v>
       </c>
       <c r="M3" t="n">
         <v>201245.4381234819</v>
       </c>
       <c r="N3" t="n">
-        <v>906.8265503279132</v>
+        <v>906.8265503280246</v>
       </c>
       <c r="O3" t="n">
-        <v>1.023181539494544e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>4.547473508864641e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>443915.7346318893</v>
+        <v>438909.9585141625</v>
       </c>
       <c r="E4" t="n">
-        <v>25598.18782307886</v>
+        <v>41728.64579728544</v>
       </c>
       <c r="F4" t="n">
-        <v>48614.82611219752</v>
+        <v>41482.3540781812</v>
       </c>
       <c r="G4" t="n">
-        <v>82911.56170243488</v>
+        <v>78422.20487951627</v>
       </c>
       <c r="H4" t="n">
-        <v>82911.56170243488</v>
+        <v>78422.20487951631</v>
       </c>
       <c r="I4" t="n">
-        <v>93255.44985104367</v>
+        <v>93191.98021509404</v>
       </c>
       <c r="J4" t="n">
-        <v>93154.78892519718</v>
+        <v>93063.7509922607</v>
       </c>
       <c r="K4" t="n">
-        <v>93063.75099226064</v>
+        <v>93063.75099226074</v>
       </c>
       <c r="L4" t="n">
-        <v>93063.75099226073</v>
+        <v>93063.7509922607</v>
       </c>
       <c r="M4" t="n">
-        <v>93403.78684820629</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="N4" t="n">
-        <v>93403.78684820623</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="O4" t="n">
+        <v>93403.78684820631</v>
+      </c>
+      <c r="P4" t="n">
         <v>93403.78684820633</v>
-      </c>
-      <c r="P4" t="n">
-        <v>93403.78684820636</v>
       </c>
     </row>
     <row r="5">
@@ -26473,25 +26473,25 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34868.02840694391</v>
+        <v>35191.4851561469</v>
       </c>
       <c r="E5" t="n">
-        <v>74956.42303086742</v>
+        <v>76298.34298516075</v>
       </c>
       <c r="F5" t="n">
-        <v>77182.67764871643</v>
+        <v>76589.31529278142</v>
       </c>
       <c r="G5" t="n">
-        <v>81131.83040910489</v>
+        <v>80538.46805316988</v>
       </c>
       <c r="H5" t="n">
-        <v>81131.83040910489</v>
+        <v>80538.46805316987</v>
       </c>
       <c r="I5" t="n">
-        <v>84749.90851542704</v>
+        <v>85704.62994599139</v>
       </c>
       <c r="J5" t="n">
-        <v>86264.06787191605</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
@@ -26500,16 +26500,16 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-332923.0633587021</v>
+        <v>-332927.4769365702</v>
       </c>
       <c r="C6" t="n">
-        <v>-332923.0633587021</v>
+        <v>-332927.4769365703</v>
       </c>
       <c r="D6" t="n">
-        <v>-363655.1405379218</v>
+        <v>-371683.2409890946</v>
       </c>
       <c r="E6" t="n">
-        <v>-1043949.949827456</v>
+        <v>-1056864.280338264</v>
       </c>
       <c r="F6" t="n">
-        <v>821.8051744236291</v>
+        <v>24242.90629005834</v>
       </c>
       <c r="G6" t="n">
-        <v>-41091.68225656767</v>
+        <v>-37647.67939395265</v>
       </c>
       <c r="H6" t="n">
-        <v>-3511.572961693586</v>
+        <v>-67.57009907869261</v>
       </c>
       <c r="I6" t="n">
-        <v>-29621.39498754973</v>
+        <v>-37283.50185765301</v>
       </c>
       <c r="J6" t="n">
-        <v>-25776.16148819399</v>
+        <v>-43865.35538160028</v>
       </c>
       <c r="K6" t="n">
-        <v>-39606.54939356979</v>
+        <v>-18233.33869421012</v>
       </c>
       <c r="L6" t="n">
         <v>-55813.44798908423</v>
@@ -26555,13 +26555,13 @@
         <v>-212959.4683050814</v>
       </c>
       <c r="N6" t="n">
-        <v>-12620.85673192744</v>
+        <v>-12620.85673192753</v>
       </c>
       <c r="O6" t="n">
-        <v>-11714.03018159962</v>
+        <v>-11714.03018159948</v>
       </c>
       <c r="P6" t="n">
-        <v>-11714.03018159962</v>
+        <v>-11714.03018159964</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="F2" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="G2" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="H2" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="I2" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="J2" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="L2" t="n">
         <v>46.97513661859254</v>
       </c>
-      <c r="L2" t="n">
-        <v>46.97513661859259</v>
-      </c>
       <c r="M2" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>56.90038563962912</v>
+        <v>71.73785119939949</v>
       </c>
       <c r="E3" t="n">
         <v>1086.755407162287</v>
@@ -26762,7 +26762,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26796,22 +26796,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>827.6990193689933</v>
+        <v>827.699019368993</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
-        <v>890.9093189931176</v>
+        <v>916.3712233763307</v>
       </c>
       <c r="J4" t="n">
-        <v>931.2911304007455</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208614</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="F2" t="n">
-        <v>23.02016569994129</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,19 +26935,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951224</v>
+        <v>50.70958360951238</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.27897692436818e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>56.90038563962912</v>
+        <v>71.73785119939949</v>
       </c>
       <c r="E3" t="n">
-        <v>1029.855021522658</v>
+        <v>1015.017555962887</v>
       </c>
       <c r="F3" t="n">
-        <v>3.021293431011372</v>
+        <v>3.0212934310116</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>827.6990193689933</v>
+        <v>827.699019368993</v>
       </c>
       <c r="F4" t="n">
-        <v>3.702436033299591</v>
+        <v>3.702436033299819</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,22 +27030,22 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>59.50786359082474</v>
+        <v>84.96976797403818</v>
       </c>
       <c r="J4" t="n">
-        <v>40.38181140762788</v>
+        <v>97.96523783228361</v>
       </c>
       <c r="K4" t="n">
-        <v>83.04533080786894</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>644.7640135626719</v>
+        <v>644.7640135626714</v>
       </c>
       <c r="N4" t="n">
-        <v>3.702436033299364</v>
+        <v>3.702436033299819</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="K2" t="n">
-        <v>23.02016569994129</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>827.6990193689933</v>
+        <v>827.699019368993</v>
       </c>
       <c r="N4" t="n">
-        <v>3.702436033299591</v>
+        <v>3.702436033299819</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>337.132164630614</v>
+        <v>336.5212934982964</v>
       </c>
       <c r="I8" t="n">
-        <v>201.6571875910218</v>
+        <v>199.3576041096427</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>135.5001979434196</v>
+        <v>131.7533278088712</v>
       </c>
       <c r="S8" t="n">
-        <v>203.8075367711175</v>
+        <v>202.448305629637</v>
       </c>
       <c r="T8" t="n">
-        <v>222.0945171495083</v>
+        <v>221.8334075797078</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3273532863242</v>
+        <v>251.322581438104</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27944,13 +27944,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2211276544763</v>
+        <v>137.1892131059138</v>
       </c>
       <c r="H9" t="n">
-        <v>111.0534192442468</v>
+        <v>110.7451918936561</v>
       </c>
       <c r="I9" t="n">
-        <v>85.18278353753688</v>
+        <v>84.08397122957275</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>92.55894868929795</v>
+        <v>90.57744715661767</v>
       </c>
       <c r="S9" t="n">
-        <v>169.4098396587074</v>
+        <v>168.8170409167675</v>
       </c>
       <c r="T9" t="n">
-        <v>199.6714130872478</v>
+        <v>199.5427750603664</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9333301396107</v>
+        <v>225.9312304982579</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28023,19 +28023,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.888372105666</v>
+        <v>167.8616160202303</v>
       </c>
       <c r="H10" t="n">
-        <v>161.3149007507911</v>
+        <v>161.0770148275541</v>
       </c>
       <c r="I10" t="n">
-        <v>152.3647949978174</v>
+        <v>151.5601665376253</v>
       </c>
       <c r="J10" t="n">
-        <v>86.10484734422367</v>
+        <v>84.21319210392311</v>
       </c>
       <c r="K10" t="n">
-        <v>10.34839463777695</v>
+        <v>7.239823984434899</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>77.57008502011038</v>
+        <v>75.32962772058507</v>
       </c>
       <c r="R10" t="n">
-        <v>172.6797961743235</v>
+        <v>171.4767452782805</v>
       </c>
       <c r="S10" t="n">
-        <v>222.2284334587564</v>
+        <v>221.7621478607551</v>
       </c>
       <c r="T10" t="n">
-        <v>227.5071766208942</v>
+        <v>227.3928551649419</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3134325972476</v>
+        <v>286.3119731744057</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="C11" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="D11" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="E11" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="F11" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="G11" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="H11" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="I11" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="T11" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="U11" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="V11" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="W11" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="X11" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="C13" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="D13" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="E13" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="F13" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="G13" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="H13" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="I13" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="J13" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="K13" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="L13" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="M13" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="N13" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="O13" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="P13" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="R13" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="S13" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="T13" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="U13" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="V13" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="W13" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="X13" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.19383812219451</v>
+        <v>27.15596392710902</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="C14" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="D14" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="E14" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="F14" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="G14" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="H14" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="I14" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="T14" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="U14" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="V14" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="W14" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="X14" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="Y14" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="C16" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="D16" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="E16" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="F16" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="G16" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="H16" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="I16" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="J16" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="K16" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="L16" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="M16" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="N16" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="O16" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="P16" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="Q16" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="R16" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="S16" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="T16" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="U16" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="V16" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="W16" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="X16" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.2140038221358</v>
+        <v>27.15596392710902</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="C17" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="D17" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="E17" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="F17" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="G17" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="H17" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="T17" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="U17" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="V17" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="W17" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="X17" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="Y17" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>64.46601136707223</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>7.958328911017105</v>
       </c>
       <c r="E19" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="F19" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="G19" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="H19" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="I19" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="S19" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="T19" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="U19" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="V19" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="W19" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="X19" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="Y19" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="C20" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="D20" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="E20" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="F20" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="G20" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="H20" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="T20" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="U20" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="V20" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="W20" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="X20" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="Y20" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="D22" t="n">
-        <v>81.18914044072834</v>
+        <v>7.95832891101756</v>
       </c>
       <c r="E22" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="F22" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="G22" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="H22" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="I22" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="S22" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="T22" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="U22" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="V22" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="W22" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="X22" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="Y22" t="n">
-        <v>64.46601136707233</v>
+        <v>74.1311005457016</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="C23" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="D23" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="E23" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="F23" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="G23" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="H23" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="T23" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="U23" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="V23" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="W23" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="X23" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="Y23" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="E25" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="F25" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="G25" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="H25" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="I25" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>64.4660113670722</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="S25" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="T25" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="U25" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="V25" t="n">
-        <v>81.18914044072834</v>
+        <v>7.958328911017162</v>
       </c>
       <c r="W25" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="X25" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
       <c r="Y25" t="n">
-        <v>81.18914044072834</v>
+        <v>74.1311005457016</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C26" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D26" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E26" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F26" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G26" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H26" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T26" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U26" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V26" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W26" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X26" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y26" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C28" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D28" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E28" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F28" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G28" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H28" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I28" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>46.97513661859175</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R28" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S28" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T28" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U28" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V28" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W28" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X28" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y28" t="n">
-        <v>69.99530231853383</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859182</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859188</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810482</v>
+        <v>55.47778196371124</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810482</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810482</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810482</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T37" t="n">
-        <v>45.39291458738822</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>54.14548214544564</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810482</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810482</v>
+        <v>45.39291458738691</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810482</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810495</v>
+        <v>46.72521440565374</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>54.14548214544428</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H46" t="n">
-        <v>55.47778196371065</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>45.39291458738649</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2287452689030315</v>
+        <v>0.2883933716558771</v>
       </c>
       <c r="H8" t="n">
-        <v>2.342637485153172</v>
+        <v>2.953508617470752</v>
       </c>
       <c r="I8" t="n">
-        <v>8.81870197938413</v>
+        <v>11.11828546076321</v>
       </c>
       <c r="J8" t="n">
-        <v>19.41446876655868</v>
+        <v>24.47702692757802</v>
       </c>
       <c r="K8" t="n">
-        <v>29.09725599922401</v>
+        <v>36.68471834977131</v>
       </c>
       <c r="L8" t="n">
-        <v>36.09771902241517</v>
+        <v>45.51063699758487</v>
       </c>
       <c r="M8" t="n">
-        <v>40.16566769826945</v>
+        <v>50.63935262077007</v>
       </c>
       <c r="N8" t="n">
-        <v>40.8155901935402</v>
+        <v>51.45875028798734</v>
       </c>
       <c r="O8" t="n">
-        <v>38.54100442588567</v>
+        <v>48.5910386985842</v>
       </c>
       <c r="P8" t="n">
-        <v>32.89385559984208</v>
+        <v>41.47132733582973</v>
       </c>
       <c r="Q8" t="n">
-        <v>24.70191565725226</v>
+        <v>31.14323971340362</v>
       </c>
       <c r="R8" t="n">
-        <v>14.36891999773006</v>
+        <v>18.11579013227851</v>
       </c>
       <c r="S8" t="n">
-        <v>5.212532815127835</v>
+        <v>6.571763956608306</v>
       </c>
       <c r="T8" t="n">
-        <v>1.001332414623021</v>
+        <v>1.262441984423603</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01829962151224251</v>
+        <v>0.02307146973247017</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1223895087342966</v>
+        <v>0.1543040572968215</v>
       </c>
       <c r="H9" t="n">
-        <v>1.182024992249654</v>
+        <v>1.490252342840356</v>
       </c>
       <c r="I9" t="n">
-        <v>4.213849313878195</v>
+        <v>5.312661621842321</v>
       </c>
       <c r="J9" t="n">
-        <v>11.56312459493633</v>
+        <v>14.57834955364401</v>
       </c>
       <c r="K9" t="n">
-        <v>19.7632216801342</v>
+        <v>24.91672139253105</v>
       </c>
       <c r="L9" t="n">
-        <v>26.57409048197962</v>
+        <v>33.50360682666295</v>
       </c>
       <c r="M9" t="n">
-        <v>31.01071017359787</v>
+        <v>39.09712890367271</v>
       </c>
       <c r="N9" t="n">
-        <v>31.83147139664498</v>
+        <v>40.131913568615</v>
       </c>
       <c r="O9" t="n">
-        <v>29.11957754521661</v>
+        <v>36.71286050956438</v>
       </c>
       <c r="P9" t="n">
-        <v>23.37102820734125</v>
+        <v>29.46530722188165</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.62291343071477</v>
+        <v>19.69677755950305</v>
       </c>
       <c r="R9" t="n">
-        <v>7.59888546334519</v>
+        <v>9.580386996025467</v>
       </c>
       <c r="S9" t="n">
-        <v>2.273331445130464</v>
+        <v>2.866130187070346</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4933156075737655</v>
+        <v>0.6219536344551708</v>
       </c>
       <c r="U9" t="n">
-        <v>0.008051941364098463</v>
+        <v>0.01015158271689616</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1026072527927738</v>
+        <v>0.1293633382284253</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9122717566484806</v>
+        <v>1.150157679885455</v>
       </c>
       <c r="I10" t="n">
-        <v>3.085679929440872</v>
+        <v>3.890308389633009</v>
       </c>
       <c r="J10" t="n">
-        <v>7.254332772449108</v>
+        <v>9.145988012749667</v>
       </c>
       <c r="K10" t="n">
-        <v>11.9210971881059</v>
+        <v>15.02966784144795</v>
       </c>
       <c r="L10" t="n">
-        <v>15.25490011066385</v>
+        <v>19.23280030352425</v>
       </c>
       <c r="M10" t="n">
-        <v>16.0841532718709</v>
+        <v>20.27829128247943</v>
       </c>
       <c r="N10" t="n">
-        <v>15.70170805691603</v>
+        <v>19.79611883999168</v>
       </c>
       <c r="O10" t="n">
-        <v>14.50306878565498</v>
+        <v>18.28491984341415</v>
       </c>
       <c r="P10" t="n">
-        <v>12.40988082868238</v>
+        <v>15.64590774355427</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.591958231583996</v>
+        <v>10.83241553110932</v>
       </c>
       <c r="R10" t="n">
-        <v>4.613595202845993</v>
+        <v>5.816646098889012</v>
       </c>
       <c r="S10" t="n">
-        <v>1.788164578215885</v>
+        <v>2.254450176217193</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4384128073873062</v>
+        <v>0.5527342633396352</v>
       </c>
       <c r="U10" t="n">
-        <v>0.005596759243242214</v>
+        <v>0.007056182085186842</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.368865958441351</v>
+        <v>4.36886595844135</v>
       </c>
       <c r="H11" t="n">
-        <v>44.7426484968875</v>
+        <v>44.74264849688749</v>
       </c>
       <c r="I11" t="n">
-        <v>168.4307048628104</v>
+        <v>168.4307048628103</v>
       </c>
       <c r="J11" t="n">
-        <v>370.802037140262</v>
+        <v>370.8020371402619</v>
       </c>
       <c r="K11" t="n">
-        <v>555.7361331610845</v>
+        <v>555.7361331610844</v>
       </c>
       <c r="L11" t="n">
-        <v>689.4398147367341</v>
+        <v>689.439814736734</v>
       </c>
       <c r="M11" t="n">
-        <v>767.1346347251655</v>
+        <v>767.1346347251653</v>
       </c>
       <c r="N11" t="n">
-        <v>779.547675129587</v>
+        <v>779.5476751295869</v>
       </c>
       <c r="O11" t="n">
-        <v>736.1047642553358</v>
+        <v>736.1047642553357</v>
       </c>
       <c r="P11" t="n">
-        <v>628.2483859063149</v>
+        <v>628.2483859063148</v>
       </c>
       <c r="Q11" t="n">
-        <v>471.7883737696338</v>
+        <v>471.7883737696337</v>
       </c>
       <c r="R11" t="n">
-        <v>274.4357762619418</v>
+        <v>274.4357762619417</v>
       </c>
       <c r="S11" t="n">
-        <v>99.55553302798239</v>
+        <v>99.55553302798236</v>
       </c>
       <c r="T11" t="n">
         <v>19.12471073307702</v>
@@ -31829,37 +31829,37 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.33754936634907</v>
+        <v>2.337549366349069</v>
       </c>
       <c r="H12" t="n">
-        <v>22.57580572237129</v>
+        <v>22.57580572237128</v>
       </c>
       <c r="I12" t="n">
-        <v>80.48141458701843</v>
+        <v>80.48141458701842</v>
       </c>
       <c r="J12" t="n">
-        <v>220.8471530724795</v>
+        <v>220.8471530724794</v>
       </c>
       <c r="K12" t="n">
-        <v>377.4629606178672</v>
+        <v>377.4629606178671</v>
       </c>
       <c r="L12" t="n">
-        <v>507.5455323732926</v>
+        <v>507.5455323732925</v>
       </c>
       <c r="M12" t="n">
-        <v>592.2816969034463</v>
+        <v>592.2816969034462</v>
       </c>
       <c r="N12" t="n">
-        <v>607.9576310312873</v>
+        <v>607.9576310312872</v>
       </c>
       <c r="O12" t="n">
-        <v>556.1624582295526</v>
+        <v>556.1624582295525</v>
       </c>
       <c r="P12" t="n">
-        <v>446.3694048776571</v>
+        <v>446.369404877657</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.3861261325585</v>
+        <v>298.3861261325584</v>
       </c>
       <c r="R12" t="n">
         <v>145.133108903673</v>
@@ -31868,7 +31868,7 @@
         <v>43.41895423898379</v>
       </c>
       <c r="T12" t="n">
-        <v>9.421964331906993</v>
+        <v>9.421964331906992</v>
       </c>
       <c r="U12" t="n">
         <v>0.1537861425229652</v>
@@ -31911,7 +31911,7 @@
         <v>1.959722865374615</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4237178394216</v>
+        <v>17.42371783942159</v>
       </c>
       <c r="I13" t="n">
         <v>58.93421126053845</v>
@@ -31920,16 +31920,16 @@
         <v>138.5524065819853</v>
       </c>
       <c r="K13" t="n">
-        <v>227.6841656317053</v>
+        <v>227.6841656317052</v>
       </c>
       <c r="L13" t="n">
-        <v>291.3573430939679</v>
+        <v>291.3573430939678</v>
       </c>
       <c r="M13" t="n">
-        <v>307.1954669786772</v>
+        <v>307.1954669786771</v>
       </c>
       <c r="N13" t="n">
-        <v>299.8910453895539</v>
+        <v>299.8910453895538</v>
       </c>
       <c r="O13" t="n">
         <v>276.9979191894957</v>
@@ -31941,16 +31941,16 @@
         <v>164.1000664815053</v>
       </c>
       <c r="R13" t="n">
-        <v>88.1162662922077</v>
+        <v>88.11626629220767</v>
       </c>
       <c r="S13" t="n">
-        <v>34.15262484475579</v>
+        <v>34.15262484475578</v>
       </c>
       <c r="T13" t="n">
-        <v>8.373361333873355</v>
+        <v>8.373361333873353</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1068939744749792</v>
+        <v>0.1068939744749791</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33181,40 +33181,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33333,43 +33333,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>189.7561326135757</v>
+        <v>189.7561326135756</v>
       </c>
       <c r="K11" t="n">
-        <v>335.6462821161039</v>
+        <v>335.6462821161038</v>
       </c>
       <c r="L11" t="n">
-        <v>453.6733997667469</v>
+        <v>453.6733997667467</v>
       </c>
       <c r="M11" t="n">
-        <v>536.7884014978928</v>
+        <v>536.7884014978926</v>
       </c>
       <c r="N11" t="n">
-        <v>550.1346115329961</v>
+        <v>550.1346115329959</v>
       </c>
       <c r="O11" t="n">
-        <v>506.006552833649</v>
+        <v>506.0065528336489</v>
       </c>
       <c r="P11" t="n">
-        <v>397.0153901510453</v>
+        <v>397.0153901510452</v>
       </c>
       <c r="Q11" t="n">
-        <v>249.4826838951843</v>
+        <v>249.4826838951842</v>
       </c>
       <c r="R11" t="n">
-        <v>58.85023844780966</v>
+        <v>58.8502384478096</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.00952640581281</v>
+        <v>94.00952640581275</v>
       </c>
       <c r="K12" t="n">
-        <v>239.6215216435082</v>
+        <v>239.6215216435081</v>
       </c>
       <c r="L12" t="n">
-        <v>368.9911525934185</v>
+        <v>368.9911525934183</v>
       </c>
       <c r="M12" t="n">
-        <v>450.147662981428</v>
+        <v>450.1476629814279</v>
       </c>
       <c r="N12" t="n">
-        <v>476.615918947954</v>
+        <v>476.6159189479539</v>
       </c>
       <c r="O12" t="n">
-        <v>413.5662137851082</v>
+        <v>413.5662137851081</v>
       </c>
       <c r="P12" t="n">
-        <v>312.3949974633269</v>
+        <v>312.3949974633268</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.404352046537</v>
+        <v>158.4043520465369</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>56.38706458750704</v>
+        <v>72.34919039242152</v>
       </c>
       <c r="K13" t="n">
-        <v>216.608511928017</v>
+        <v>232.5706377329314</v>
       </c>
       <c r="L13" t="n">
-        <v>330.1412064764785</v>
+        <v>346.103332281393</v>
       </c>
       <c r="M13" t="n">
-        <v>357.9731820627122</v>
+        <v>373.9353078676268</v>
       </c>
       <c r="N13" t="n">
-        <v>355.217055890977</v>
+        <v>371.1791816958914</v>
       </c>
       <c r="O13" t="n">
-        <v>312.7768852257299</v>
+        <v>328.7390110306444</v>
       </c>
       <c r="P13" t="n">
-        <v>245.4919701229414</v>
+        <v>261.4540959278559</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.13186135200543</v>
+        <v>105.0939871569199</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.79242043520202</v>
+        <v>72.73438054017524</v>
       </c>
       <c r="K16" t="n">
-        <v>240.2616633664554</v>
+        <v>233.2036234714286</v>
       </c>
       <c r="L16" t="n">
-        <v>353.9713759923339</v>
+        <v>346.9133360973071</v>
       </c>
       <c r="M16" t="n">
-        <v>381.8473832156196</v>
+        <v>374.7893433205929</v>
       </c>
       <c r="N16" t="n">
-        <v>379.0709499896759</v>
+        <v>372.0129100946491</v>
       </c>
       <c r="O16" t="n">
-        <v>336.5671340447756</v>
+        <v>329.5090941497488</v>
       </c>
       <c r="P16" t="n">
-        <v>269.1710749672462</v>
+        <v>262.1130350722195</v>
       </c>
       <c r="Q16" t="n">
-        <v>112.6082423600295</v>
+        <v>105.5502024650027</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36373,10 +36373,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>634.3890824577896</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>265.4415465900438</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36598,7 +36598,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
@@ -36607,16 +36607,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>645.6438810250692</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>411.50402328789</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>92.55355323165797</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701981</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>347.6333793934838</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675401</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451104</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>315.3055921237165</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554006</v>
+        <v>527.4262975833881</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887899</v>
       </c>
       <c r="M31" t="n">
         <v>394.6085160120764</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
@@ -37075,19 +37075,19 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>795.0547863356097</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>356.532865998188</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222478</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37236,13 +37236,13 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637023</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37306,7 +37306,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554017</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
